--- a/ANN/data_4m_ann_ga.xlsx
+++ b/ANN/data_4m_ann_ga.xlsx
@@ -406,25 +406,25 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>7.01470947265625</v>
+        <v>7.014062881469727</v>
       </c>
       <c r="D2">
-        <v>-4.249069213867188</v>
+        <v>-4.252988815307617</v>
       </c>
       <c r="E2">
-        <v>35.05545425415039</v>
+        <v>35.05583572387695</v>
       </c>
       <c r="F2">
-        <v>59.35561370849609</v>
+        <v>59.35352325439453</v>
       </c>
       <c r="G2">
-        <v>163.771728515625</v>
+        <v>164.6376495361328</v>
       </c>
       <c r="H2">
-        <v>139.0515632629395</v>
+        <v>138.1919174194336</v>
       </c>
       <c r="I2">
-        <v>22635.50306421191</v>
+        <v>22635.47154090083</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -435,25 +435,25 @@
         <v>420</v>
       </c>
       <c r="C3">
-        <v>8.219724655151367</v>
+        <v>8.219045639038086</v>
       </c>
       <c r="D3">
-        <v>-3.147192001342773</v>
+        <v>-3.15130615234375</v>
       </c>
       <c r="E3">
-        <v>39.59084701538086</v>
+        <v>39.59124374389648</v>
       </c>
       <c r="F3">
-        <v>62.95193481445312</v>
+        <v>62.94973754882812</v>
       </c>
       <c r="G3">
-        <v>168.1820068359375</v>
+        <v>169.0911254882812</v>
       </c>
       <c r="H3">
-        <v>144.2026786804199</v>
+        <v>143.3001537322998</v>
       </c>
       <c r="I3">
-        <v>23495.1829828573</v>
+        <v>23495.15066954876</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -464,25 +464,25 @@
         <v>440</v>
       </c>
       <c r="C4">
-        <v>9.424737930297852</v>
+        <v>9.424030303955078</v>
       </c>
       <c r="D4">
-        <v>-2.045314788818359</v>
+        <v>-2.049623489379883</v>
       </c>
       <c r="E4">
-        <v>44.1262321472168</v>
+        <v>44.12664413452148</v>
       </c>
       <c r="F4">
-        <v>66.54825592041016</v>
+        <v>66.54595184326172</v>
       </c>
       <c r="G4">
-        <v>172.5923004150391</v>
+        <v>173.5445861816406</v>
       </c>
       <c r="H4">
-        <v>149.3537883758545</v>
+        <v>148.408411026001</v>
       </c>
       <c r="I4">
-        <v>24359.40990155238</v>
+        <v>24359.37686315422</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -493,25 +493,25 @@
         <v>460</v>
       </c>
       <c r="C5">
-        <v>10.62975311279297</v>
+        <v>10.62901306152344</v>
       </c>
       <c r="D5">
-        <v>-0.9434375762939453</v>
+        <v>-0.9479408264160156</v>
       </c>
       <c r="E5">
-        <v>48.66162490844727</v>
+        <v>48.66205215454102</v>
       </c>
       <c r="F5">
-        <v>70.14457702636719</v>
+        <v>70.14216613769531</v>
       </c>
       <c r="G5">
-        <v>177.0025939941406</v>
+        <v>177.9980773925781</v>
       </c>
       <c r="H5">
-        <v>154.5048885345459</v>
+        <v>153.5166320800781</v>
       </c>
       <c r="I5">
-        <v>25228.18379973607</v>
+        <v>25228.15011882531</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -522,25 +522,25 @@
         <v>480</v>
       </c>
       <c r="C6">
-        <v>11.83476829528809</v>
+        <v>11.8339958190918</v>
       </c>
       <c r="D6">
-        <v>0.1584396362304688</v>
+        <v>0.1537418365478516</v>
       </c>
       <c r="E6">
-        <v>53.1970100402832</v>
+        <v>53.19746017456055</v>
       </c>
       <c r="F6">
-        <v>73.74089050292969</v>
+        <v>73.73838043212891</v>
       </c>
       <c r="G6">
-        <v>181.4128723144531</v>
+        <v>182.4515380859375</v>
       </c>
       <c r="H6">
-        <v>159.6560192108154</v>
+        <v>158.6248836517334</v>
       </c>
       <c r="I6">
-        <v>26101.50469886479</v>
+        <v>26101.47043766816</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -551,25 +551,25 @@
         <v>500</v>
       </c>
       <c r="C7">
-        <v>13.0397834777832</v>
+        <v>13.03897857666016</v>
       </c>
       <c r="D7">
-        <v>1.260316848754883</v>
+        <v>1.255426406860352</v>
       </c>
       <c r="E7">
-        <v>57.73240280151367</v>
+        <v>57.73286056518555</v>
       </c>
       <c r="F7">
-        <v>77.33721160888672</v>
+        <v>77.3345947265625</v>
       </c>
       <c r="G7">
-        <v>185.8231506347656</v>
+        <v>186.9050140380859</v>
       </c>
       <c r="H7">
-        <v>164.8071346282959</v>
+        <v>163.7331256866455</v>
       </c>
       <c r="I7">
-        <v>26979.79520991293</v>
+        <v>26979.76078320589</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -580,25 +580,25 @@
         <v>520</v>
       </c>
       <c r="C8">
-        <v>14.24479866027832</v>
+        <v>14.24396133422852</v>
       </c>
       <c r="D8">
-        <v>2.362194061279297</v>
+        <v>2.357109069824219</v>
       </c>
       <c r="E8">
-        <v>62.26778793334961</v>
+        <v>62.26826858520508</v>
       </c>
       <c r="F8">
-        <v>80.93353271484375</v>
+        <v>80.93080902099609</v>
       </c>
       <c r="G8">
-        <v>190.2334442138672</v>
+        <v>191.3584899902344</v>
       </c>
       <c r="H8">
-        <v>169.9582424163818</v>
+        <v>168.8413619995117</v>
       </c>
       <c r="I8">
-        <v>27862.23126885766</v>
+        <v>27862.19641743381</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -609,25 +609,25 @@
         <v>540</v>
       </c>
       <c r="C9">
-        <v>15.44981384277344</v>
+        <v>15.44894409179688</v>
       </c>
       <c r="D9">
-        <v>3.464073181152344</v>
+        <v>3.458791732788086</v>
       </c>
       <c r="E9">
-        <v>66.80317687988281</v>
+        <v>66.80366516113281</v>
       </c>
       <c r="F9">
-        <v>84.52984619140625</v>
+        <v>84.52702331542969</v>
       </c>
       <c r="G9">
-        <v>194.6437377929688</v>
+        <v>195.8119506835938</v>
       </c>
       <c r="H9">
-        <v>175.1093521118164</v>
+        <v>173.9496250152588</v>
       </c>
       <c r="I9">
-        <v>28749.21561929179</v>
+        <v>28749.18041514887</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -638,25 +638,25 @@
         <v>560</v>
       </c>
       <c r="C10">
-        <v>16.65482711791992</v>
+        <v>16.65392684936523</v>
       </c>
       <c r="D10">
-        <v>4.565950393676758</v>
+        <v>4.560474395751953</v>
       </c>
       <c r="E10">
-        <v>71.33856201171875</v>
+        <v>71.33908081054688</v>
       </c>
       <c r="F10">
-        <v>88.12616729736328</v>
+        <v>88.12323760986328</v>
       </c>
       <c r="G10">
-        <v>199.0540161132812</v>
+        <v>200.2654266357422</v>
       </c>
       <c r="H10">
-        <v>180.26047706604</v>
+        <v>179.0578536987305</v>
       </c>
       <c r="I10">
-        <v>29640.74825350124</v>
+        <v>29640.71276434969</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -667,25 +667,25 @@
         <v>580</v>
       </c>
       <c r="C11">
-        <v>17.85984420776367</v>
+        <v>17.85890960693359</v>
       </c>
       <c r="D11">
-        <v>5.667827606201172</v>
+        <v>5.66215705871582</v>
       </c>
       <c r="E11">
-        <v>75.87394714355469</v>
+        <v>75.87448120117188</v>
       </c>
       <c r="F11">
-        <v>91.72248840332031</v>
+        <v>91.71945190429688</v>
       </c>
       <c r="G11">
-        <v>203.4642944335938</v>
+        <v>204.7189025878906</v>
       </c>
       <c r="H11">
-        <v>185.4115982055664</v>
+        <v>184.1660976409912</v>
       </c>
       <c r="I11">
-        <v>30536.82916933187</v>
+        <v>30536.79347788936</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -696,25 +696,25 @@
         <v>600</v>
       </c>
       <c r="C12">
-        <v>19.06485748291016</v>
+        <v>19.06389236450195</v>
       </c>
       <c r="D12">
-        <v>6.769702911376953</v>
+        <v>6.763839721679688</v>
       </c>
       <c r="E12">
-        <v>80.40933227539062</v>
+        <v>80.40988159179688</v>
       </c>
       <c r="F12">
-        <v>95.31880950927734</v>
+        <v>95.31566619873047</v>
       </c>
       <c r="G12">
-        <v>207.8745880126953</v>
+        <v>209.1723785400391</v>
       </c>
       <c r="H12">
-        <v>190.5627098083496</v>
+        <v>189.274341583252</v>
       </c>
       <c r="I12">
-        <v>31437.4583693314</v>
+        <v>31437.42254955229</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -725,25 +725,25 @@
         <v>620</v>
       </c>
       <c r="C13">
-        <v>20.26987457275391</v>
+        <v>20.26887893676758</v>
       </c>
       <c r="D13">
-        <v>7.87158203125</v>
+        <v>7.865524291992188</v>
       </c>
       <c r="E13">
-        <v>84.94473266601562</v>
+        <v>84.94528198242188</v>
       </c>
       <c r="F13">
-        <v>98.91512298583984</v>
+        <v>98.91188049316406</v>
       </c>
       <c r="G13">
-        <v>212.2848663330078</v>
+        <v>213.6258392333984</v>
       </c>
       <c r="H13">
-        <v>195.7138214111328</v>
+        <v>194.3825950622559</v>
       </c>
       <c r="I13">
-        <v>32342.63586074003</v>
+        <v>32342.59998140185</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -754,25 +754,25 @@
         <v>640</v>
       </c>
       <c r="C14">
-        <v>21.47488784790039</v>
+        <v>21.47386169433594</v>
       </c>
       <c r="D14">
-        <v>8.973461151123047</v>
+        <v>8.967205047607422</v>
       </c>
       <c r="E14">
-        <v>89.48011779785156</v>
+        <v>89.48069763183594</v>
       </c>
       <c r="F14">
-        <v>102.5114440917969</v>
+        <v>102.5081024169922</v>
       </c>
       <c r="G14">
-        <v>216.6951599121094</v>
+        <v>218.0793151855469</v>
       </c>
       <c r="H14">
-        <v>200.8649291992188</v>
+        <v>199.4908180236816</v>
       </c>
       <c r="I14">
-        <v>33252.36164227095</v>
+        <v>33252.32576444744</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -783,25 +783,25 @@
         <v>660</v>
       </c>
       <c r="C15">
-        <v>22.67990493774414</v>
+        <v>22.6788444519043</v>
       </c>
       <c r="D15">
-        <v>10.07533645629883</v>
+        <v>10.06888961791992</v>
       </c>
       <c r="E15">
-        <v>94.0155029296875</v>
+        <v>94.01609802246094</v>
       </c>
       <c r="F15">
-        <v>106.1077651977539</v>
+        <v>106.1043167114258</v>
       </c>
       <c r="G15">
-        <v>221.1054382324219</v>
+        <v>222.5327911376953</v>
       </c>
       <c r="H15">
-        <v>206.0160522460938</v>
+        <v>204.5990600585938</v>
       </c>
       <c r="I15">
-        <v>34166.63569952198</v>
+        <v>34166.59991775024</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -812,25 +812,25 @@
         <v>680</v>
       </c>
       <c r="C16">
-        <v>23.88491821289062</v>
+        <v>23.88382720947266</v>
       </c>
       <c r="D16">
-        <v>11.17721557617188</v>
+        <v>11.17057037353516</v>
       </c>
       <c r="E16">
-        <v>98.55088806152344</v>
+        <v>98.55149841308594</v>
       </c>
       <c r="F16">
-        <v>109.7040786743164</v>
+        <v>109.7005310058594</v>
       </c>
       <c r="G16">
-        <v>225.5157318115234</v>
+        <v>226.9862670898438</v>
       </c>
       <c r="H16">
-        <v>211.1671676635742</v>
+        <v>209.7073059082031</v>
       </c>
       <c r="I16">
-        <v>35085.45805189708</v>
+        <v>35085.42241911409</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -841,25 +841,25 @@
         <v>700</v>
       </c>
       <c r="C17">
-        <v>25.08993148803711</v>
+        <v>25.08880996704102</v>
       </c>
       <c r="D17">
-        <v>12.27909088134766</v>
+        <v>12.27225494384766</v>
       </c>
       <c r="E17">
-        <v>103.0862731933594</v>
+        <v>103.0869140625</v>
       </c>
       <c r="F17">
-        <v>113.3003997802734</v>
+        <v>113.296745300293</v>
       </c>
       <c r="G17">
-        <v>229.9260101318359</v>
+        <v>231.4397277832031</v>
       </c>
       <c r="H17">
-        <v>216.3182945251465</v>
+        <v>214.8155479431152</v>
       </c>
       <c r="I17">
-        <v>36008.82868098277</v>
+        <v>36008.79329048905</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -870,25 +870,25 @@
         <v>720</v>
       </c>
       <c r="C18">
-        <v>26.29494857788086</v>
+        <v>26.29379272460938</v>
       </c>
       <c r="D18">
-        <v>13.3809700012207</v>
+        <v>13.37393951416016</v>
       </c>
       <c r="E18">
-        <v>107.6216735839844</v>
+        <v>107.622314453125</v>
       </c>
       <c r="F18">
-        <v>116.8967208862305</v>
+        <v>116.8929595947266</v>
       </c>
       <c r="G18">
-        <v>234.3363037109375</v>
+        <v>235.8932037353516</v>
       </c>
       <c r="H18">
-        <v>221.4693832397461</v>
+        <v>219.9237899780273</v>
       </c>
       <c r="I18">
-        <v>36936.74760825973</v>
+        <v>36936.71251956245</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -899,25 +899,25 @@
         <v>740</v>
       </c>
       <c r="C19">
-        <v>27.49996185302734</v>
+        <v>27.49877548217773</v>
       </c>
       <c r="D19">
-        <v>14.48284530639648</v>
+        <v>14.47562026977539</v>
       </c>
       <c r="E19">
-        <v>112.1570587158203</v>
+        <v>112.15771484375</v>
       </c>
       <c r="F19">
-        <v>120.493034362793</v>
+        <v>120.4891662597656</v>
       </c>
       <c r="G19">
-        <v>238.74658203125</v>
+        <v>240.3466796875</v>
       </c>
       <c r="H19">
-        <v>226.6205177307129</v>
+        <v>225.0320434570312</v>
       </c>
       <c r="I19">
-        <v>37869.21480737206</v>
+        <v>37869.18009337093</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -928,25 +928,25 @@
         <v>760</v>
       </c>
       <c r="C20">
-        <v>28.70497894287109</v>
+        <v>28.70375823974609</v>
       </c>
       <c r="D20">
-        <v>15.58472442626953</v>
+        <v>15.57730484008789</v>
       </c>
       <c r="E20">
-        <v>116.6924438476562</v>
+        <v>116.6931304931641</v>
       </c>
       <c r="F20">
-        <v>124.0893630981445</v>
+        <v>124.0853881835938</v>
       </c>
       <c r="G20">
-        <v>243.1568756103516</v>
+        <v>244.8001556396484</v>
       </c>
       <c r="H20">
-        <v>231.771614074707</v>
+        <v>230.1402626037598</v>
       </c>
       <c r="I20">
-        <v>38806.23030846082</v>
+        <v>38806.19604724732</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -957,25 +957,25 @@
         <v>780</v>
       </c>
       <c r="C21">
-        <v>29.90999221801758</v>
+        <v>29.90874099731445</v>
       </c>
       <c r="D21">
-        <v>16.68659973144531</v>
+        <v>16.67898559570312</v>
       </c>
       <c r="E21">
-        <v>121.2278289794922</v>
+        <v>121.2285308837891</v>
       </c>
       <c r="F21">
-        <v>127.685676574707</v>
+        <v>127.6815948486328</v>
       </c>
       <c r="G21">
-        <v>247.5671539306641</v>
+        <v>249.2536163330078</v>
       </c>
       <c r="H21">
-        <v>236.9227485656738</v>
+        <v>235.2485313415527</v>
       </c>
       <c r="I21">
-        <v>39747.79407786747</v>
+        <v>39747.76033623041</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -986,25 +986,25 @@
         <v>800</v>
       </c>
       <c r="C22">
-        <v>31.11500930786133</v>
+        <v>31.11372375488281</v>
       </c>
       <c r="D22">
-        <v>17.78847885131836</v>
+        <v>17.78067016601562</v>
       </c>
       <c r="E22">
-        <v>125.7632141113281</v>
+        <v>125.7639312744141</v>
       </c>
       <c r="F22">
-        <v>131.281982421875</v>
+        <v>131.2778167724609</v>
       </c>
       <c r="G22">
-        <v>251.9774322509766</v>
+        <v>253.7070922851562</v>
       </c>
       <c r="H22">
-        <v>242.0738830566406</v>
+        <v>240.3567657470703</v>
       </c>
       <c r="I22">
-        <v>40693.9061425441</v>
+        <v>40693.87300300074</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1015,25 +1015,25 @@
         <v>820</v>
       </c>
       <c r="C23">
-        <v>32.32002258300781</v>
+        <v>32.31870651245117</v>
       </c>
       <c r="D23">
-        <v>18.89035415649414</v>
+        <v>18.88235092163086</v>
       </c>
       <c r="E23">
-        <v>130.2986145019531</v>
+        <v>130.2993316650391</v>
       </c>
       <c r="F23">
-        <v>134.8783111572266</v>
+        <v>134.8740234375</v>
       </c>
       <c r="G23">
-        <v>256.3877258300781</v>
+        <v>258.1605834960938</v>
       </c>
       <c r="H23">
-        <v>247.2249717712402</v>
+        <v>245.4650039672852</v>
       </c>
       <c r="I23">
-        <v>41644.8121284967</v>
+        <v>41644.77971500138</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1044,25 +1044,25 @@
         <v>840</v>
       </c>
       <c r="C24">
-        <v>33.52503967285156</v>
+        <v>33.52368927001953</v>
       </c>
       <c r="D24">
-        <v>19.99223327636719</v>
+        <v>19.98403549194336</v>
       </c>
       <c r="E24">
-        <v>134.8339996337891</v>
+        <v>134.8347473144531</v>
       </c>
       <c r="F24">
-        <v>138.4746246337891</v>
+        <v>138.4702453613281</v>
       </c>
       <c r="G24">
-        <v>260.7980041503906</v>
+        <v>262.6140441894531</v>
       </c>
       <c r="H24">
-        <v>252.3760986328125</v>
+        <v>250.5732383728027</v>
       </c>
       <c r="I24">
-        <v>42600.03199867358</v>
+        <v>42600.00033464392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1073,25 +1073,25 @@
         <v>860</v>
       </c>
       <c r="C25">
-        <v>34.73005294799805</v>
+        <v>34.72867584228516</v>
       </c>
       <c r="D25">
-        <v>21.09411239624023</v>
+        <v>21.08572006225586</v>
       </c>
       <c r="E25">
-        <v>139.369384765625</v>
+        <v>139.3701477050781</v>
       </c>
       <c r="F25">
-        <v>142.0709381103516</v>
+        <v>142.0664672851562</v>
       </c>
       <c r="G25">
-        <v>265.2083129882812</v>
+        <v>267.0675048828125</v>
       </c>
       <c r="H25">
-        <v>257.5271987915039</v>
+        <v>255.6814842224121</v>
       </c>
       <c r="I25">
-        <v>43559.80049394875</v>
+        <v>43559.76965779798</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1102,25 +1102,25 @@
         <v>880</v>
       </c>
       <c r="C26">
-        <v>35.93506622314453</v>
+        <v>35.93365859985352</v>
       </c>
       <c r="D26">
-        <v>22.19598770141602</v>
+        <v>22.18740081787109</v>
       </c>
       <c r="E26">
-        <v>143.9047698974609</v>
+        <v>143.9055480957031</v>
       </c>
       <c r="F26">
-        <v>145.6672668457031</v>
+        <v>145.6626739501953</v>
       </c>
       <c r="G26">
-        <v>269.6185913085938</v>
+        <v>271.52099609375</v>
       </c>
       <c r="H26">
-        <v>262.6783180236816</v>
+        <v>260.789722442627</v>
       </c>
       <c r="I26">
-        <v>44524.11762309208</v>
+        <v>44524.08765922637</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1131,25 +1131,25 @@
         <v>900</v>
       </c>
       <c r="C27">
-        <v>37.14008331298828</v>
+        <v>37.13864135742188</v>
       </c>
       <c r="D27">
-        <v>23.29786682128906</v>
+        <v>23.28908538818359</v>
       </c>
       <c r="E27">
-        <v>148.4401550292969</v>
+        <v>148.4409637451172</v>
       </c>
       <c r="F27">
-        <v>149.2635803222656</v>
+        <v>149.2588958740234</v>
       </c>
       <c r="G27">
-        <v>274.0288696289062</v>
+        <v>275.9744567871094</v>
       </c>
       <c r="H27">
-        <v>267.8294448852539</v>
+        <v>265.8979568481445</v>
       </c>
       <c r="I27">
-        <v>45492.98339215794</v>
+        <v>45492.95440147604</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1160,25 +1160,25 @@
         <v>920</v>
       </c>
       <c r="C28">
-        <v>38.34509658813477</v>
+        <v>38.34362411499023</v>
       </c>
       <c r="D28">
-        <v>24.39974212646484</v>
+        <v>24.39076614379883</v>
       </c>
       <c r="E28">
-        <v>152.9755554199219</v>
+        <v>152.9763641357422</v>
       </c>
       <c r="F28">
-        <v>152.8599090576172</v>
+        <v>152.8551025390625</v>
       </c>
       <c r="G28">
-        <v>278.4391479492188</v>
+        <v>280.4279174804688</v>
       </c>
       <c r="H28">
-        <v>272.9805488586426</v>
+        <v>271.0062255859375</v>
       </c>
       <c r="I28">
-        <v>46466.39780113498</v>
+        <v>46466.36981059282</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1189,25 +1189,25 @@
         <v>940</v>
       </c>
       <c r="C29">
-        <v>39.55011367797852</v>
+        <v>39.54860687255859</v>
       </c>
       <c r="D29">
-        <v>25.50162124633789</v>
+        <v>25.49245071411133</v>
       </c>
       <c r="E29">
-        <v>157.5109405517578</v>
+        <v>157.5117645263672</v>
       </c>
       <c r="F29">
-        <v>156.4562225341797</v>
+        <v>156.4513244628906</v>
       </c>
       <c r="G29">
-        <v>282.8494262695312</v>
+        <v>284.8814086914062</v>
       </c>
       <c r="H29">
-        <v>278.1316757202148</v>
+        <v>276.114444732666</v>
       </c>
       <c r="I29">
-        <v>47444.3608376912</v>
+        <v>47444.33395465711</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1218,25 +1218,25 @@
         <v>960</v>
       </c>
       <c r="C30">
-        <v>40.755126953125</v>
+        <v>40.75358963012695</v>
       </c>
       <c r="D30">
-        <v>26.60349655151367</v>
+        <v>26.59413146972656</v>
       </c>
       <c r="E30">
-        <v>162.0463256835938</v>
+        <v>162.0471801757812</v>
       </c>
       <c r="F30">
-        <v>160.0525360107422</v>
+        <v>160.0475311279297</v>
       </c>
       <c r="G30">
-        <v>287.2597045898438</v>
+        <v>289.3348693847656</v>
       </c>
       <c r="H30">
-        <v>283.2828102111816</v>
+        <v>281.2226982116699</v>
       </c>
       <c r="I30">
-        <v>48426.87248555175</v>
+        <v>48426.84678904222</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1247,25 +1247,25 @@
         <v>980</v>
       </c>
       <c r="C31">
-        <v>41.96014404296875</v>
+        <v>41.95857238769531</v>
       </c>
       <c r="D31">
-        <v>27.70537567138672</v>
+        <v>27.69581604003906</v>
       </c>
       <c r="E31">
-        <v>166.5817108154297</v>
+        <v>166.5825805664062</v>
       </c>
       <c r="F31">
-        <v>163.6488647460938</v>
+        <v>163.6437530517578</v>
       </c>
       <c r="G31">
-        <v>291.6700134277344</v>
+        <v>293.788330078125</v>
       </c>
       <c r="H31">
-        <v>288.4338912963867</v>
+        <v>286.3309478759766</v>
       </c>
       <c r="I31">
-        <v>49413.93280205736</v>
+        <v>49413.90834296302</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1276,25 +1276,25 @@
         <v>1000</v>
       </c>
       <c r="C32">
-        <v>43.16515731811523</v>
+        <v>43.16355514526367</v>
       </c>
       <c r="D32">
-        <v>28.8072509765625</v>
+        <v>28.79750061035156</v>
       </c>
       <c r="E32">
-        <v>171.1171112060547</v>
+        <v>171.1179809570312</v>
       </c>
       <c r="F32">
-        <v>167.2451782226562</v>
+        <v>167.2399597167969</v>
       </c>
       <c r="G32">
-        <v>296.0802917480469</v>
+        <v>298.2418212890625</v>
       </c>
       <c r="H32">
-        <v>293.5850105285645</v>
+        <v>291.4391822814941</v>
       </c>
       <c r="I32">
-        <v>50405.5417319193</v>
+        <v>50405.51858699691</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1305,25 +1305,25 @@
         <v>1020</v>
       </c>
       <c r="C33">
-        <v>44.37017440795898</v>
+        <v>44.36853790283203</v>
       </c>
       <c r="D33">
-        <v>29.90913009643555</v>
+        <v>29.8991813659668</v>
       </c>
       <c r="E33">
-        <v>175.6524963378906</v>
+        <v>175.6533966064453</v>
       </c>
       <c r="F33">
-        <v>170.8414916992188</v>
+        <v>170.836181640625</v>
       </c>
       <c r="G33">
-        <v>300.4906005859375</v>
+        <v>302.6952819824219</v>
       </c>
       <c r="H33">
-        <v>298.7361068725586</v>
+        <v>296.547420501709</v>
       </c>
       <c r="I33">
-        <v>51401.69929907716</v>
+        <v>51401.6775586277</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1334,25 +1334,25 @@
         <v>1040</v>
       </c>
       <c r="C34">
-        <v>45.57518768310547</v>
+        <v>45.57352066040039</v>
       </c>
       <c r="D34">
-        <v>31.01100540161133</v>
+        <v>31.0008659362793</v>
       </c>
       <c r="E34">
-        <v>180.1878814697266</v>
+        <v>180.1887969970703</v>
       </c>
       <c r="F34">
-        <v>174.4378204345703</v>
+        <v>174.4323883056641</v>
       </c>
       <c r="G34">
-        <v>304.90087890625</v>
+        <v>307.1487426757812</v>
       </c>
       <c r="H34">
-        <v>303.8872261047363</v>
+        <v>301.6556854248047</v>
       </c>
       <c r="I34">
-        <v>52402.8831812478</v>
+        <v>52402.86293742825</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1363,25 +1363,25 @@
         <v>1060</v>
       </c>
       <c r="C35">
-        <v>46.78020095825195</v>
+        <v>46.77850341796875</v>
       </c>
       <c r="D35">
-        <v>32.11288452148438</v>
+        <v>32.10254669189453</v>
       </c>
       <c r="E35">
-        <v>184.7232666015625</v>
+        <v>184.7241973876953</v>
       </c>
       <c r="F35">
-        <v>178.0341339111328</v>
+        <v>178.0286102294922</v>
       </c>
       <c r="G35">
-        <v>309.3111572265625</v>
+        <v>311.6022338867188</v>
       </c>
       <c r="H35">
-        <v>309.0383567810059</v>
+        <v>306.7639083862305</v>
       </c>
       <c r="I35">
-        <v>53408.15651926959</v>
+        <v>53408.13781349274</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1392,25 +1392,25 @@
         <v>1080</v>
       </c>
       <c r="C36">
-        <v>47.9852180480957</v>
+        <v>47.98348617553711</v>
       </c>
       <c r="D36">
-        <v>33.21476364135742</v>
+        <v>33.20423126220703</v>
       </c>
       <c r="E36">
-        <v>189.2586517333984</v>
+        <v>189.2595977783203</v>
       </c>
       <c r="F36">
-        <v>181.6304473876953</v>
+        <v>181.6248168945312</v>
       </c>
       <c r="G36">
-        <v>313.721435546875</v>
+        <v>316.0557250976562</v>
       </c>
       <c r="H36">
-        <v>314.1894836425781</v>
+        <v>311.872142791748</v>
       </c>
       <c r="I36">
-        <v>54417.97892963343</v>
+        <v>54417.96181337707</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1421,25 +1421,25 @@
         <v>1100</v>
       </c>
       <c r="C37">
-        <v>49.19023513793945</v>
+        <v>49.18847274780273</v>
       </c>
       <c r="D37">
-        <v>34.3166389465332</v>
+        <v>34.30591201782227</v>
       </c>
       <c r="E37">
-        <v>193.7940521240234</v>
+        <v>193.7950134277344</v>
       </c>
       <c r="F37">
-        <v>185.2267761230469</v>
+        <v>185.2210388183594</v>
       </c>
       <c r="G37">
-        <v>318.1317138671875</v>
+        <v>320.5091552734375</v>
       </c>
       <c r="H37">
-        <v>319.3405838012695</v>
+        <v>316.9804077148438</v>
       </c>
       <c r="I37">
-        <v>55432.35043192629</v>
+        <v>55432.33498618694</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1450,25 +1450,25 @@
         <v>1120</v>
       </c>
       <c r="C38">
-        <v>50.39524459838867</v>
+        <v>50.39345169067383</v>
       </c>
       <c r="D38">
-        <v>35.41851806640625</v>
+        <v>35.40759658813477</v>
       </c>
       <c r="E38">
-        <v>198.3294372558594</v>
+        <v>198.3304138183594</v>
       </c>
       <c r="F38">
-        <v>188.8230895996094</v>
+        <v>188.8172454833984</v>
       </c>
       <c r="G38">
-        <v>322.5419921875</v>
+        <v>324.962646484375</v>
       </c>
       <c r="H38">
-        <v>324.4917182922363</v>
+        <v>322.0886459350586</v>
       </c>
       <c r="I38">
-        <v>56451.2709353198</v>
+        <v>56451.25723599731</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1479,25 +1479,25 @@
         <v>1140</v>
       </c>
       <c r="C39">
-        <v>51.60026168823242</v>
+        <v>51.59843826293945</v>
       </c>
       <c r="D39">
-        <v>36.52039337158203</v>
+        <v>36.50928115844727</v>
       </c>
       <c r="E39">
-        <v>202.8648376464844</v>
+        <v>202.8658294677734</v>
       </c>
       <c r="F39">
-        <v>192.4194030761719</v>
+        <v>192.4134674072266</v>
       </c>
       <c r="G39">
-        <v>326.9522705078125</v>
+        <v>329.4161376953125</v>
       </c>
       <c r="H39">
-        <v>329.6428337097168</v>
+        <v>327.1968460083008</v>
       </c>
       <c r="I39">
-        <v>57474.74053765054</v>
+        <v>57474.72869953101</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1508,25 +1508,25 @@
         <v>1160</v>
       </c>
       <c r="C40">
-        <v>52.80527877807617</v>
+        <v>52.80341720581055</v>
       </c>
       <c r="D40">
-        <v>37.62227249145508</v>
+        <v>37.6109619140625</v>
       </c>
       <c r="E40">
-        <v>207.4002075195312</v>
+        <v>207.4012298583984</v>
       </c>
       <c r="F40">
-        <v>196.0157318115234</v>
+        <v>196.0096740722656</v>
       </c>
       <c r="G40">
-        <v>331.3625793457031</v>
+        <v>333.8695983886719</v>
       </c>
       <c r="H40">
-        <v>334.7939300537109</v>
+        <v>332.305118560791</v>
       </c>
       <c r="I40">
-        <v>58502.7591885362</v>
+        <v>58502.74919433815</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1537,25 +1537,25 @@
         <v>1180</v>
       </c>
       <c r="C41">
-        <v>54.01029586791992</v>
+        <v>54.00840377807617</v>
       </c>
       <c r="D41">
-        <v>38.72414779663086</v>
+        <v>38.71264266967773</v>
       </c>
       <c r="E41">
-        <v>211.9356079101562</v>
+        <v>211.9366302490234</v>
       </c>
       <c r="F41">
-        <v>199.6120452880859</v>
+        <v>199.6058959960938</v>
       </c>
       <c r="G41">
-        <v>335.7728881835938</v>
+        <v>338.3230590820312</v>
       </c>
       <c r="H41">
-        <v>339.9450149536133</v>
+        <v>337.4133682250977</v>
       </c>
       <c r="I41">
-        <v>59535.32691169716</v>
+        <v>59535.31888114163</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1566,25 +1566,25 @@
         <v>1200</v>
       </c>
       <c r="C42">
-        <v>55.21530532836914</v>
+        <v>55.21338272094727</v>
       </c>
       <c r="D42">
-        <v>39.82602310180664</v>
+        <v>39.81432723999023</v>
       </c>
       <c r="E42">
-        <v>216.4709777832031</v>
+        <v>216.4720306396484</v>
       </c>
       <c r="F42">
-        <v>203.2083740234375</v>
+        <v>203.2021026611328</v>
       </c>
       <c r="G42">
-        <v>340.1831665039062</v>
+        <v>342.7765502929688</v>
       </c>
       <c r="H42">
-        <v>345.0961532592773</v>
+        <v>342.5216064453125</v>
       </c>
       <c r="I42">
-        <v>60572.44363661313</v>
+        <v>60572.4376559329</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1595,25 +1595,25 @@
         <v>1220</v>
       </c>
       <c r="C43">
-        <v>56.42032241821289</v>
+        <v>56.41836929321289</v>
       </c>
       <c r="D43">
-        <v>40.92790603637695</v>
+        <v>40.91601181030273</v>
       </c>
       <c r="E43">
-        <v>221.0063781738281</v>
+        <v>221.0074310302734</v>
       </c>
       <c r="F43">
-        <v>206.8046875</v>
+        <v>206.7983245849609</v>
       </c>
       <c r="G43">
-        <v>344.5934448242188</v>
+        <v>347.2300109863281</v>
       </c>
       <c r="H43">
-        <v>350.2472610473633</v>
+        <v>347.6298522949219</v>
       </c>
       <c r="I43">
-        <v>61614.10951367487</v>
+        <v>61614.10562424575</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1624,25 +1624,25 @@
         <v>1240</v>
       </c>
       <c r="C44">
-        <v>57.62533950805664</v>
+        <v>57.62335586547852</v>
       </c>
       <c r="D44">
-        <v>42.02978134155273</v>
+        <v>42.01769638061523</v>
       </c>
       <c r="E44">
-        <v>225.5417785644531</v>
+        <v>225.5428314208984</v>
       </c>
       <c r="F44">
-        <v>210.4010009765625</v>
+        <v>210.39453125</v>
       </c>
       <c r="G44">
-        <v>349.0037231445312</v>
+        <v>351.6834716796875</v>
       </c>
       <c r="H44">
-        <v>355.3983764648438</v>
+        <v>352.7381134033203</v>
       </c>
       <c r="I44">
-        <v>62660.32442333334</v>
+        <v>62660.32269569841</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1653,25 +1653,25 @@
         <v>1260</v>
       </c>
       <c r="C45">
-        <v>58.83034896850586</v>
+        <v>58.82833480834961</v>
       </c>
       <c r="D45">
-        <v>43.13165664672852</v>
+        <v>43.1193733215332</v>
       </c>
       <c r="E45">
-        <v>230.0771484375</v>
+        <v>230.0782623291016</v>
       </c>
       <c r="F45">
-        <v>213.9973297119141</v>
+        <v>213.9907531738281</v>
       </c>
       <c r="G45">
-        <v>353.4140014648438</v>
+        <v>356.136962890625</v>
       </c>
       <c r="H45">
-        <v>360.5495147705078</v>
+        <v>357.8463134765625</v>
       </c>
       <c r="I45">
-        <v>63711.08832497481</v>
+        <v>63711.08892992362</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1682,25 +1682,25 @@
         <v>1280</v>
       </c>
       <c r="C46">
-        <v>60.03536605834961</v>
+        <v>60.03332138061523</v>
       </c>
       <c r="D46">
-        <v>44.23353958129883</v>
+        <v>44.2210578918457</v>
       </c>
       <c r="E46">
-        <v>234.612548828125</v>
+        <v>234.6136627197266</v>
       </c>
       <c r="F46">
-        <v>217.5936431884766</v>
+        <v>217.5869750976562</v>
       </c>
       <c r="G46">
-        <v>357.8242797851562</v>
+        <v>360.5904235839844</v>
       </c>
       <c r="H46">
-        <v>365.7006225585938</v>
+        <v>362.9545593261719</v>
       </c>
       <c r="I46">
-        <v>64766.40138723324</v>
+        <v>64766.4043013745</v>
       </c>
     </row>
   </sheetData>
